--- a/TravelBuddy/FlightExcel.xlsx
+++ b/TravelBuddy/FlightExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Price</t>
   </si>
@@ -24,30 +24,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>82,19 €</t>
-  </si>
-  <si>
-    <t>118,00 €</t>
-  </si>
-  <si>
-    <t>140,03 €</t>
-  </si>
-  <si>
-    <t>140,17 €</t>
-  </si>
-  <si>
-    <t>141,80 €</t>
-  </si>
-  <si>
-    <t>175,53 €</t>
-  </si>
-  <si>
-    <t>165,14 €</t>
-  </si>
-  <si>
-    <t>147,40 €</t>
-  </si>
-  <si>
     <t>197,80 €</t>
   </si>
   <si>
@@ -58,6 +34,48 @@
   </si>
   <si>
     <t>140,36 €</t>
+  </si>
+  <si>
+    <t>Return Flight Company</t>
+  </si>
+  <si>
+    <t>Departure Flight Company</t>
+  </si>
+  <si>
+    <t>77,53 €</t>
+  </si>
+  <si>
+    <t>112,99 €</t>
+  </si>
+  <si>
+    <t>135,03 €</t>
+  </si>
+  <si>
+    <t>115,29 €</t>
+  </si>
+  <si>
+    <t>Transfer independent</t>
+  </si>
+  <si>
+    <t>121,20 €</t>
+  </si>
+  <si>
+    <t>89,63 €</t>
+  </si>
+  <si>
+    <t>140,20 €</t>
+  </si>
+  <si>
+    <t>139,89 €</t>
+  </si>
+  <si>
+    <t>47,62 €</t>
+  </si>
+  <si>
+    <t>Transfer independent și schimbare de aeroport</t>
+  </si>
+  <si>
+    <t>59,24 €</t>
   </si>
 </sst>
 </file>
@@ -396,93 +414,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
